--- a/Assets/Excel/MainStageSO.xlsx
+++ b/Assets/Excel/MainStageSO.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">subStageCount</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 시작 왕국</t>
+    <t xml:space="preserve">1. 시작 왕왕국</t>
   </si>
   <si>
     <t xml:space="preserve">2. 두 번째 왕국</t>
@@ -140,16 +140,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,7 +345,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,7 +363,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -378,11 +374,11 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="b">
+      <c r="C2" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -393,11 +389,11 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="C3" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -408,11 +404,11 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C4" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -423,11 +419,11 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="C5" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -438,11 +434,11 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -453,11 +449,11 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -468,11 +464,11 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -483,11 +479,11 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="C9" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -498,11 +494,11 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="C10" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>9</v>
       </c>
     </row>
